--- a/0-data/0-raw/tree3h.xlsx
+++ b/0-data/0-raw/tree3h.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Desktop\terrain_mesures_millan2020\arbres_mtg\arbre3\arbre3h\arbre3h\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cirad.fr\AMAP - FSPM - Analyses\Allometries\0-data\0-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="A3H" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X731"/>
+  <dimension ref="A1:U731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A731" sqref="A731:XFD731"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>73</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>74</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>75</v>
       </c>
@@ -1025,15 +1025,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1083,33 +1083,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>37</v>
       </c>
@@ -1124,12 +1111,12 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="8" t="s">
@@ -1180,11 +1167,8 @@
         <f>S43+T43</f>
         <v>11.684199999999999</v>
       </c>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C44" s="10"/>
       <c r="D44" s="9" t="s">
         <v>61</v>
@@ -1193,7 +1177,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C45" s="10"/>
       <c r="D45" s="7" t="s">
         <v>37</v>
@@ -1208,14 +1192,14 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="E46" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>37</v>
       </c>
@@ -1229,7 +1213,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="D48" s="7" t="s">
         <v>38</v>
@@ -10238,6 +10222,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10246,20 +10236,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8584536-6C2C-4B21-BFEA-0490800EEC07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8584536-6C2C-4B21-BFEA-0490800EEC07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D814E5-5E67-48D6-A2B4-A5162778CC0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3D6EF4-1E7B-407B-B5AA-1B148B709C47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3D6EF4-1E7B-407B-B5AA-1B148B709C47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D814E5-5E67-48D6-A2B4-A5162778CC0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/0-data/0-raw/tree3h.xlsx
+++ b/0-data/0-raw/tree3h.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="88">
   <si>
     <t>CODE:</t>
   </si>
@@ -170,12 +170,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>^&lt;S20</t>
   </si>
   <si>
@@ -292,12 +286,15 @@
   <si>
     <t>^&lt;S19</t>
   </si>
+  <si>
+    <t>sc_0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +313,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -363,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="J702" sqref="J702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +765,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -942,7 +948,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -951,7 +957,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -960,7 +966,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -969,7 +975,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -978,7 +984,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -987,7 +993,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -995,7 +1001,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -1003,7 +1009,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -1011,7 +1017,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
@@ -1019,7 +1025,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -1053,39 +1059,39 @@
         <v>47</v>
       </c>
       <c r="L38" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="O38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="P38" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="17" t="s">
+      <c r="Q38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="R38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="17" t="s">
+      <c r="S38" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="R38" s="17" t="s">
+      <c r="T38" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S38" s="18" t="s">
+      <c r="U38" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="T38" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U38" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -1113,7 +1119,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1177,7 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C44" s="10"/>
       <c r="D44" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K44">
         <v>3760</v>
@@ -1196,7 +1202,7 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="E46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -1230,7 +1236,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K49">
         <v>3764</v>
@@ -1281,7 +1287,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="D53" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K53">
         <v>3768</v>
@@ -1304,7 +1310,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K55">
         <v>3770</v>
@@ -1326,7 +1332,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F57" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K57">
         <v>3772</v>
@@ -1337,10 +1343,10 @@
         <v>37</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K58">
         <v>3773</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F60" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K60">
         <v>3775</v>
@@ -1412,7 +1418,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E64" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K64">
         <v>3779</v>
@@ -1423,10 +1429,10 @@
         <v>37</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K65">
         <v>3780</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E67" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K67">
         <v>3782</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F69" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K69">
         <v>3784</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F73" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K73">
         <v>3788</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K77">
         <v>3792</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E79" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K79">
         <v>3794</v>
@@ -1603,10 +1609,10 @@
         <v>37</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K80">
         <v>3795</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="83" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K83">
         <v>3798</v>
@@ -1695,7 +1701,7 @@
     </row>
     <row r="85" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E85" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K85">
         <v>3800</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="87" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F87" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K87">
         <v>3802</v>
@@ -1728,10 +1734,10 @@
         <v>37</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K88">
         <v>3803</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="90" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F90" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K90">
         <v>3805</v>
@@ -1764,10 +1770,10 @@
         <v>37</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K91">
         <v>3806</v>
@@ -1778,10 +1784,10 @@
         <v>40</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K92">
         <v>3807</v>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="94" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E94" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K94">
         <v>3809</v>
@@ -1814,10 +1820,10 @@
         <v>37</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K95">
         <v>3810</v>
@@ -1828,10 +1834,10 @@
         <v>40</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K96">
         <v>3811</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="98" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D98" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K98">
         <v>3813</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="100" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E100" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K100">
         <v>3815</v>
@@ -1917,10 +1923,10 @@
         <v>37</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K101">
         <v>3816</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="104" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D104" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K104">
         <v>3819</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="106" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E106" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K106">
         <v>3821</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="108" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F108" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K108">
         <v>3823</v>
@@ -2011,10 +2017,10 @@
         <v>37</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K109">
         <v>3824</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="112" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E112" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K112">
         <v>3827</v>
@@ -2100,7 +2106,7 @@
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D116" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K116">
         <v>3831</v>
@@ -2111,10 +2117,10 @@
         <v>37</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K117">
         <v>3832</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D119" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K119">
         <v>3834</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E121" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K121">
         <v>3836</v>
@@ -2208,7 +2214,7 @@
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D125" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K125">
         <v>3840</v>
@@ -2230,7 +2236,7 @@
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E127" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K127">
         <v>3842</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="130" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E130" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K130">
         <v>3845</v>
@@ -2333,7 +2339,7 @@
     </row>
     <row r="133" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E133" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K133">
         <v>3848</v>
@@ -2369,7 +2375,7 @@
     </row>
     <row r="136" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G136" s="13">
         <v>10</v>
@@ -2383,7 +2389,7 @@
     </row>
     <row r="137" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D137" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K137">
         <v>3852</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="139" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E139" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K139">
         <v>3854</v>
@@ -2416,10 +2422,10 @@
         <v>37</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K140">
         <v>3855</v>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="142" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E142" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K142">
         <v>3857</v>
@@ -2477,7 +2483,7 @@
     </row>
     <row r="145" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G145" s="13">
         <v>10.5</v>
@@ -2491,7 +2497,7 @@
     </row>
     <row r="146" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D146" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K146">
         <v>3861</v>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="148" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E148" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K148">
         <v>3863</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="151" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E151" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K151">
         <v>3866</v>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="154" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G154" s="13">
         <v>5.5</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="155" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D155" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="3:21" x14ac:dyDescent="0.3">
@@ -2649,7 +2655,7 @@
     </row>
     <row r="157" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E157" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K157">
         <v>3871</v>
@@ -2671,7 +2677,7 @@
     </row>
     <row r="159" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F159" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K159">
         <v>3873</v>
@@ -2707,7 +2713,7 @@
     </row>
     <row r="162" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F162" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K162">
         <v>3876</v>
@@ -2732,10 +2738,10 @@
         <v>40</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K164">
         <v>3878</v>
@@ -2757,7 +2763,7 @@
     </row>
     <row r="166" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E166" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K166">
         <v>3880</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="168" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F168" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K168">
         <v>3882</v>
@@ -2829,7 +2835,7 @@
     </row>
     <row r="172" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F172" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K172">
         <v>3886</v>
@@ -2865,7 +2871,7 @@
     </row>
     <row r="175" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F175" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K175">
         <v>3889</v>
@@ -2901,7 +2907,7 @@
     </row>
     <row r="178" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G178" s="13">
         <v>43.5</v>
@@ -2946,7 +2952,7 @@
     </row>
     <row r="179" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D179" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K179">
         <v>3893</v>
@@ -2968,7 +2974,7 @@
     </row>
     <row r="181" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G181" s="13">
         <v>15.5</v>
@@ -2982,7 +2988,7 @@
     </row>
     <row r="182" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D182" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K182">
         <v>3896</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="184" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E184" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K184">
         <v>3898</v>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="186" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F186" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K186">
         <v>3900</v>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="190" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K190">
         <v>3904</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G193" s="13">
         <v>5.5</v>
@@ -3126,7 +3132,7 @@
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D194" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K194">
         <v>3908</v>
@@ -3148,7 +3154,7 @@
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G196" s="13">
         <v>18</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D200" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K200">
         <v>3914</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D203" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K203">
         <v>3917</v>
@@ -3339,7 +3345,7 @@
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D212" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K212">
         <v>3925</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E214" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K214">
         <v>3927</v>
@@ -3397,7 +3403,7 @@
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E217" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K217">
         <v>3930</v>
@@ -3447,7 +3453,7 @@
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D221" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K221">
         <v>3934</v>
@@ -3469,7 +3475,7 @@
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E223" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K223">
         <v>3936</v>
@@ -3519,7 +3525,7 @@
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D227" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K227">
         <v>3940</v>
@@ -3555,7 +3561,7 @@
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D230" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K230">
         <v>3943</v>
@@ -3591,7 +3597,7 @@
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D233" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K233">
         <v>3946</v>
@@ -3627,7 +3633,7 @@
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D236" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K236">
         <v>3949</v>
@@ -3771,7 +3777,7 @@
     </row>
     <row r="248" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D248" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K248">
         <v>3961</v>
@@ -3793,7 +3799,7 @@
     </row>
     <row r="250" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E250" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K250">
         <v>3963</v>
@@ -3829,7 +3835,7 @@
     </row>
     <row r="253" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E253" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K253">
         <v>3966</v>
@@ -3910,7 +3916,7 @@
     </row>
     <row r="257" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D257" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K257">
         <v>3970</v>
@@ -3932,7 +3938,7 @@
     </row>
     <row r="259" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E259" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K259">
         <v>3972</v>
@@ -3968,7 +3974,7 @@
     </row>
     <row r="262" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E262" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K262">
         <v>3975</v>
@@ -4004,7 +4010,7 @@
     </row>
     <row r="265" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E265" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K265">
         <v>3978</v>
@@ -4054,7 +4060,7 @@
     </row>
     <row r="269" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D269" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K269">
         <v>3982</v>
@@ -4076,7 +4082,7 @@
     </row>
     <row r="271" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E271" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K271">
         <v>3984</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="274" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E274" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G274" s="13">
         <v>19</v>
@@ -4151,7 +4157,7 @@
     </row>
     <row r="277" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E277" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K277">
         <v>3990</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="281" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D281" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K281">
         <v>3994</v>
@@ -4223,7 +4229,7 @@
     </row>
     <row r="283" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E283" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K283">
         <v>3996</v>
@@ -4245,7 +4251,7 @@
     </row>
     <row r="285" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F285" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K285">
         <v>3998</v>
@@ -4295,7 +4301,7 @@
     </row>
     <row r="289" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E289" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K289">
         <v>4002</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="293" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D293" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K293">
         <v>4006</v>
@@ -4398,7 +4404,7 @@
     </row>
     <row r="295" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E295" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K295">
         <v>4008</v>
@@ -4448,7 +4454,7 @@
     </row>
     <row r="299" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D299" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K299">
         <v>4012</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="302" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D302" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K302">
         <v>4015</v>
@@ -4506,7 +4512,7 @@
     </row>
     <row r="304" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E304" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K304">
         <v>4017</v>
@@ -4542,7 +4548,7 @@
     </row>
     <row r="307" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E307" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K307">
         <v>4020</v>
@@ -4578,7 +4584,7 @@
     </row>
     <row r="310" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E310" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K310">
         <v>4023</v>
@@ -4614,7 +4620,7 @@
     </row>
     <row r="313" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E313" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K313">
         <v>4026</v>
@@ -4664,7 +4670,7 @@
     </row>
     <row r="317" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D317" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K317">
         <v>4030</v>
@@ -4700,7 +4706,7 @@
     </row>
     <row r="320" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D320" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K320">
         <v>4033</v>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="322" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E322" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K322">
         <v>4035</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="325" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C325" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G325" s="13">
         <v>10.5</v>
@@ -4772,7 +4778,7 @@
     </row>
     <row r="326" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D326" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K326">
         <v>4039</v>
@@ -4794,7 +4800,7 @@
     </row>
     <row r="328" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E328" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K328">
         <v>4041</v>
@@ -4830,7 +4836,7 @@
     </row>
     <row r="331" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E331" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K331">
         <v>4044</v>
@@ -4866,7 +4872,7 @@
     </row>
     <row r="334" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G334" s="13">
         <v>6</v>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="335" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D335" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K335">
         <v>4048</v>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="337" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E337" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K337">
         <v>4050</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="340" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E340" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K340">
         <v>4053</v>
@@ -5005,7 +5011,7 @@
     </row>
     <row r="343" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E343" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K343">
         <v>4056</v>
@@ -5041,7 +5047,7 @@
     </row>
     <row r="346" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E346" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K346">
         <v>4059</v>
@@ -5077,7 +5083,7 @@
     </row>
     <row r="349" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C349" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G349" s="13">
         <v>15</v>
@@ -5091,7 +5097,7 @@
     </row>
     <row r="350" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D350" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K350">
         <v>4063</v>
@@ -5113,7 +5119,7 @@
     </row>
     <row r="352" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E352" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K352">
         <v>4065</v>
@@ -5135,7 +5141,7 @@
     </row>
     <row r="354" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F354" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K354">
         <v>4067</v>
@@ -5185,7 +5191,7 @@
     </row>
     <row r="358" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C358" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G358" s="13">
         <v>25.5</v>
@@ -5199,7 +5205,7 @@
     </row>
     <row r="359" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D359" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K359">
         <v>4072</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="361" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E361" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K361">
         <v>4074</v>
@@ -5257,7 +5263,7 @@
     </row>
     <row r="364" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C364" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G364" s="13">
         <v>3</v>
@@ -5271,7 +5277,7 @@
     </row>
     <row r="365" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D365" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K365">
         <v>4078</v>
@@ -5293,7 +5299,7 @@
     </row>
     <row r="367" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E367" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K367">
         <v>4080</v>
@@ -5315,7 +5321,7 @@
     </row>
     <row r="369" spans="4:21" x14ac:dyDescent="0.3">
       <c r="F369" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K369">
         <v>4082</v>
@@ -5396,7 +5402,7 @@
     </row>
     <row r="373" spans="4:21" x14ac:dyDescent="0.3">
       <c r="E373" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K373">
         <v>4086</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="375" spans="4:21" x14ac:dyDescent="0.3">
       <c r="F375" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K375">
         <v>4088</v>
@@ -5454,7 +5460,7 @@
     </row>
     <row r="378" spans="4:21" x14ac:dyDescent="0.3">
       <c r="F378" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K378">
         <v>4091</v>
@@ -5504,7 +5510,7 @@
     </row>
     <row r="382" spans="4:21" x14ac:dyDescent="0.3">
       <c r="E382" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K382">
         <v>4095</v>
@@ -5540,7 +5546,7 @@
     </row>
     <row r="385" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E385" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K385">
         <v>4098</v>
@@ -5576,7 +5582,7 @@
     </row>
     <row r="388" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C388" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G388" s="13">
         <v>8.5</v>
@@ -5590,7 +5596,7 @@
     </row>
     <row r="389" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D389" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K389">
         <v>4102</v>
@@ -5612,7 +5618,7 @@
     </row>
     <row r="391" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E391" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K391">
         <v>4104</v>
@@ -5648,7 +5654,7 @@
     </row>
     <row r="394" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E394" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K394">
         <v>4107</v>
@@ -5684,7 +5690,7 @@
     </row>
     <row r="397" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C397" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G397" s="13">
         <v>7</v>
@@ -5698,7 +5704,7 @@
     </row>
     <row r="398" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D398" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K398">
         <v>4111</v>
@@ -5720,7 +5726,7 @@
     </row>
     <row r="400" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C400" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G400" s="13">
         <v>40.5</v>
@@ -5765,7 +5771,7 @@
     </row>
     <row r="401" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D401" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K401">
         <v>4114</v>
@@ -5787,7 +5793,7 @@
     </row>
     <row r="403" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E403" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K403">
         <v>4116</v>
@@ -5823,7 +5829,7 @@
     </row>
     <row r="406" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C406" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G406" s="13">
         <v>4</v>
@@ -5837,7 +5843,7 @@
     </row>
     <row r="407" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D407" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K407">
         <v>4120</v>
@@ -5859,7 +5865,7 @@
     </row>
     <row r="409" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E409" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K409">
         <v>4122</v>
@@ -5881,7 +5887,7 @@
     </row>
     <row r="411" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F411" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K411">
         <v>4124</v>
@@ -5931,7 +5937,7 @@
     </row>
     <row r="415" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E415" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K415">
         <v>4128</v>
@@ -5967,7 +5973,7 @@
     </row>
     <row r="418" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C418" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G418" s="13">
         <v>6.5</v>
@@ -5981,7 +5987,7 @@
     </row>
     <row r="419" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D419" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K419">
         <v>4132</v>
@@ -6003,7 +6009,7 @@
     </row>
     <row r="421" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E421" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K421">
         <v>4134</v>
@@ -6025,7 +6031,7 @@
     </row>
     <row r="423" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F423" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K423">
         <v>4136</v>
@@ -6075,7 +6081,7 @@
     </row>
     <row r="427" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E427" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K427">
         <v>4140</v>
@@ -6111,7 +6117,7 @@
     </row>
     <row r="430" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C430" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G430" s="13">
         <v>14.5</v>
@@ -6125,7 +6131,7 @@
     </row>
     <row r="431" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D431" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K431">
         <v>4144</v>
@@ -6147,7 +6153,7 @@
     </row>
     <row r="433" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C433" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G433" s="13">
         <v>10</v>
@@ -6161,7 +6167,7 @@
     </row>
     <row r="434" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D434" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K434">
         <v>4147</v>
@@ -6183,7 +6189,7 @@
     </row>
     <row r="436" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E436" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K436">
         <v>4149</v>
@@ -6205,7 +6211,7 @@
     </row>
     <row r="438" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F438" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K438">
         <v>4151</v>
@@ -6255,7 +6261,7 @@
     </row>
     <row r="442" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E442" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K442">
         <v>4155</v>
@@ -6291,7 +6297,7 @@
     </row>
     <row r="445" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E445" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K445">
         <v>4158</v>
@@ -6327,7 +6333,7 @@
     </row>
     <row r="448" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C448" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G448" s="13">
         <v>37.5</v>
@@ -6341,7 +6347,7 @@
     </row>
     <row r="449" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D449" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K449">
         <v>4162</v>
@@ -6363,7 +6369,7 @@
     </row>
     <row r="451" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E451" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K451">
         <v>4164</v>
@@ -6385,7 +6391,7 @@
     </row>
     <row r="453" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F453" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K453">
         <v>4166</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="457" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E457" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K457">
         <v>4170</v>
@@ -6471,7 +6477,7 @@
     </row>
     <row r="460" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C460" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G460" s="13">
         <v>29.5</v>
@@ -6485,7 +6491,7 @@
     </row>
     <row r="461" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D461" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K461">
         <v>4174</v>
@@ -6507,7 +6513,7 @@
     </row>
     <row r="463" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E463" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K463">
         <v>4176</v>
@@ -6543,7 +6549,7 @@
     </row>
     <row r="466" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C466" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G466" s="13">
         <v>12</v>
@@ -6557,7 +6563,7 @@
     </row>
     <row r="467" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D467" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G467" s="13">
         <v>8</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="469" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C469" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G469" s="13">
         <v>8.5</v>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="470" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D470" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K470">
         <v>4183</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="472" spans="3:21" x14ac:dyDescent="0.3">
       <c r="E472" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K472">
         <v>4185</v>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="475" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C475" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G475" s="13">
         <v>14.5</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="476" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D476" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K476">
         <v>4189</v>
@@ -6755,7 +6761,7 @@
     </row>
     <row r="478" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C478" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G478" s="13">
         <v>12</v>
@@ -6769,7 +6775,7 @@
     </row>
     <row r="479" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D479" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K479">
         <v>4192</v>
@@ -6791,7 +6797,7 @@
     </row>
     <row r="481" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C481" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G481" s="13">
         <v>1.5</v>
@@ -6805,7 +6811,7 @@
     </row>
     <row r="482" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D482" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K482">
         <v>4195</v>
@@ -6827,7 +6833,7 @@
     </row>
     <row r="484" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C484" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G484" s="13">
         <v>60.5</v>
@@ -6877,7 +6883,7 @@
     </row>
     <row r="488" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D488" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K488">
         <v>4201</v>
@@ -6913,7 +6919,7 @@
     </row>
     <row r="491" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D491" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K491">
         <v>4204</v>
@@ -6985,7 +6991,7 @@
     </row>
     <row r="497" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D497" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K497">
         <v>4210</v>
@@ -7021,7 +7027,7 @@
     </row>
     <row r="500" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G500" s="13">
         <v>42</v>
@@ -7088,7 +7094,7 @@
     </row>
     <row r="503" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D503" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K503">
         <v>4216</v>
@@ -7099,7 +7105,7 @@
         <v>37</v>
       </c>
       <c r="G504" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H504" s="13">
         <v>12.5</v>
@@ -7124,7 +7130,7 @@
     </row>
     <row r="506" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D506" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K506">
         <v>4219</v>
@@ -7160,7 +7166,7 @@
     </row>
     <row r="509" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D509" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K509">
         <v>4222</v>
@@ -7196,7 +7202,7 @@
     </row>
     <row r="512" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D512" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K512">
         <v>4225</v>
@@ -7232,7 +7238,7 @@
     </row>
     <row r="515" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G515" s="13">
         <v>6</v>
@@ -7299,7 +7305,7 @@
     </row>
     <row r="518" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D518" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K518">
         <v>4231</v>
@@ -7335,7 +7341,7 @@
     </row>
     <row r="521" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D521" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K521">
         <v>4234</v>
@@ -7346,7 +7352,7 @@
         <v>37</v>
       </c>
       <c r="G522" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H522" s="13">
         <v>6.8</v>
@@ -7371,7 +7377,7 @@
     </row>
     <row r="524" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D524" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K524">
         <v>4237</v>
@@ -7407,7 +7413,7 @@
     </row>
     <row r="527" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D527" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K527">
         <v>4240</v>
@@ -7443,7 +7449,7 @@
     </row>
     <row r="530" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D530" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K530">
         <v>4243</v>
@@ -7479,7 +7485,7 @@
     </row>
     <row r="533" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G533" s="13">
         <v>5</v>
@@ -7515,7 +7521,7 @@
     </row>
     <row r="536" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G536" s="13">
         <v>26.5</v>
@@ -7551,7 +7557,7 @@
     </row>
     <row r="539" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D539" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K539">
         <v>4252</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="541" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E541" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K541">
         <v>4254</v>
@@ -7623,7 +7629,7 @@
     </row>
     <row r="545" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G545" s="13">
         <v>8.5</v>
@@ -7659,7 +7665,7 @@
     </row>
     <row r="548" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D548" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K548">
         <v>4261</v>
@@ -7695,7 +7701,7 @@
     </row>
     <row r="551" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G551" s="13">
         <v>10</v>
@@ -7731,7 +7737,7 @@
     </row>
     <row r="554" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D554" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K554">
         <v>4267</v>
@@ -7767,7 +7773,7 @@
     </row>
     <row r="557" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G557" s="13">
         <v>5.5</v>
@@ -7803,7 +7809,7 @@
     </row>
     <row r="560" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D560" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K560">
         <v>4273</v>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="563" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D563" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K563">
         <v>4276</v>
@@ -7875,7 +7881,7 @@
     </row>
     <row r="566" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G566" s="13">
         <v>11</v>
@@ -7942,7 +7948,7 @@
     </row>
     <row r="569" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D569" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K569">
         <v>4282</v>
@@ -7978,7 +7984,7 @@
     </row>
     <row r="572" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D572" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K572">
         <v>4285</v>
@@ -8014,7 +8020,7 @@
     </row>
     <row r="575" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D575" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K575">
         <v>4288</v>
@@ -8050,7 +8056,7 @@
     </row>
     <row r="578" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G578" s="13">
         <v>9.5</v>
@@ -8086,7 +8092,7 @@
     </row>
     <row r="581" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D581" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K581">
         <v>4294</v>
@@ -8153,7 +8159,7 @@
     </row>
     <row r="584" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D584" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K584">
         <v>4297</v>
@@ -8189,7 +8195,7 @@
     </row>
     <row r="587" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D587" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K587">
         <v>4300</v>
@@ -8225,7 +8231,7 @@
     </row>
     <row r="590" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B590" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G590" s="13">
         <v>11.5</v>
@@ -8261,7 +8267,7 @@
     </row>
     <row r="593" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D593" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K593">
         <v>4306</v>
@@ -8283,7 +8289,7 @@
     </row>
     <row r="595" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E595" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K595">
         <v>4308</v>
@@ -8319,7 +8325,7 @@
     </row>
     <row r="598" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E598" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K598">
         <v>4311</v>
@@ -8369,7 +8375,7 @@
     </row>
     <row r="602" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D602" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K602">
         <v>4315</v>
@@ -8405,7 +8411,7 @@
     </row>
     <row r="605" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D605" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K605">
         <v>4318</v>
@@ -8441,7 +8447,7 @@
     </row>
     <row r="608" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D608" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K608">
         <v>4321</v>
@@ -8477,7 +8483,7 @@
     </row>
     <row r="611" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D611" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K611">
         <v>4324</v>
@@ -8499,7 +8505,7 @@
     </row>
     <row r="613" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E613" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K613">
         <v>4326</v>
@@ -8549,7 +8555,7 @@
     </row>
     <row r="617" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D617" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K617">
         <v>4330</v>
@@ -8571,7 +8577,7 @@
     </row>
     <row r="619" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E619" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K619">
         <v>4332</v>
@@ -8593,7 +8599,7 @@
     </row>
     <row r="621" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F621" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K621">
         <v>4334</v>
@@ -8643,7 +8649,7 @@
     </row>
     <row r="625" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E625" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K625">
         <v>4338</v>
@@ -8693,7 +8699,7 @@
     </row>
     <row r="629" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D629" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K629">
         <v>4342</v>
@@ -8729,7 +8735,7 @@
     </row>
     <row r="632" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D632" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K632">
         <v>4345</v>
@@ -8765,7 +8771,7 @@
     </row>
     <row r="635" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D635" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K635">
         <v>4348</v>
@@ -8787,7 +8793,7 @@
     </row>
     <row r="637" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C637" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G637" s="13">
         <v>1.5</v>
@@ -8801,7 +8807,7 @@
     </row>
     <row r="638" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D638" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K638">
         <v>4351</v>
@@ -8823,7 +8829,7 @@
     </row>
     <row r="640" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C640" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G640" s="13">
         <v>8.5</v>
@@ -8837,7 +8843,7 @@
     </row>
     <row r="641" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B641" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G641" s="13">
         <v>13.5</v>
@@ -8873,7 +8879,7 @@
     </row>
     <row r="644" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D644" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K644">
         <v>4357</v>
@@ -8909,7 +8915,7 @@
     </row>
     <row r="647" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B647" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G647" s="13">
         <v>27</v>
@@ -8945,7 +8951,7 @@
     </row>
     <row r="650" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D650" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K650">
         <v>4363</v>
@@ -8967,7 +8973,7 @@
     </row>
     <row r="652" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E652" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K652">
         <v>4365</v>
@@ -8989,7 +8995,7 @@
     </row>
     <row r="654" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F654" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K654">
         <v>4367</v>
@@ -9039,7 +9045,7 @@
     </row>
     <row r="658" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E658" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K658">
         <v>4371</v>
@@ -9089,7 +9095,7 @@
     </row>
     <row r="662" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D662" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K662">
         <v>4375</v>
@@ -9156,7 +9162,7 @@
     </row>
     <row r="665" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D665" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K665">
         <v>4378</v>
@@ -9192,7 +9198,7 @@
     </row>
     <row r="668" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D668" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K668">
         <v>4381</v>
@@ -9228,7 +9234,7 @@
     </row>
     <row r="671" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B671" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G671" s="13">
         <v>19</v>
@@ -9264,7 +9270,7 @@
     </row>
     <row r="674" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D674" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K674">
         <v>4387</v>
@@ -9286,7 +9292,7 @@
     </row>
     <row r="676" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E676" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K676">
         <v>4389</v>
@@ -9322,7 +9328,7 @@
     </row>
     <row r="679" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E679" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K679">
         <v>4392</v>
@@ -9372,7 +9378,7 @@
     </row>
     <row r="683" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D683" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K683">
         <v>4396</v>
@@ -9408,7 +9414,7 @@
     </row>
     <row r="686" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D686" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K686">
         <v>4399</v>
@@ -9444,7 +9450,7 @@
     </row>
     <row r="689" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D689" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K689">
         <v>4402</v>
@@ -9455,10 +9461,13 @@
         <v>37</v>
       </c>
       <c r="G690" s="13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H690" s="13">
         <v>6.9</v>
+      </c>
+      <c r="J690" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="K690">
         <v>4403</v>
@@ -9480,7 +9489,7 @@
     </row>
     <row r="692" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B692" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G692" s="13">
         <v>44</v>
@@ -9578,7 +9587,7 @@
     </row>
     <row r="695" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B695" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G695" s="13">
         <v>4.5</v>
@@ -9614,7 +9623,7 @@
     </row>
     <row r="698" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D698" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K698">
         <v>4411</v>
@@ -9650,7 +9659,7 @@
     </row>
     <row r="701" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D701" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K701">
         <v>4414</v>
@@ -9661,10 +9670,13 @@
         <v>37</v>
       </c>
       <c r="G702" s="13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H702" s="13">
         <v>4.5</v>
+      </c>
+      <c r="J702" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="K702">
         <v>4415</v>
@@ -9686,7 +9698,7 @@
     </row>
     <row r="704" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B704" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G704" s="13">
         <v>9</v>
@@ -9722,7 +9734,7 @@
     </row>
     <row r="707" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D707" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K707">
         <v>4420</v>
@@ -9758,7 +9770,7 @@
     </row>
     <row r="710" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B710" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G710" s="13">
         <v>10.5</v>
@@ -9794,7 +9806,7 @@
     </row>
     <row r="713" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B713" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G713" s="13">
         <v>5</v>
@@ -9830,7 +9842,7 @@
     </row>
     <row r="716" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D716" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K716">
         <v>4429</v>
@@ -9897,7 +9909,7 @@
     </row>
     <row r="719" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D719" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K719">
         <v>4432</v>
@@ -9933,7 +9945,7 @@
     </row>
     <row r="722" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B722" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G722" s="13">
         <v>15</v>
@@ -9969,7 +9981,7 @@
     </row>
     <row r="725" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D725" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K725">
         <v>4438</v>
@@ -10005,7 +10017,7 @@
     </row>
     <row r="728" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B728" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G728" s="13">
         <v>20</v>
@@ -10041,7 +10053,7 @@
     </row>
     <row r="731" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B731" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G731" s="13">
         <v>111</v>
@@ -10086,6 +10098,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10222,18 +10235,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10255,25 +10268,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3D6EF4-1E7B-407B-B5AA-1B148B709C47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D814E5-5E67-48D6-A2B4-A5162778CC0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D814E5-5E67-48D6-A2B4-A5162778CC0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3D6EF4-1E7B-407B-B5AA-1B148B709C47}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/0-data/0-raw/tree3h.xlsx
+++ b/0-data/0-raw/tree3h.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="A3H" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A3H!$K$1:$K$731</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="89">
   <si>
     <t>CODE:</t>
   </si>
@@ -288,6 +291,9 @@
   </si>
   <si>
     <t>sc_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> measured at 0.7996</t>
   </si>
 </sst>
 </file>
@@ -687,8 +693,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="J702" sqref="J702"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <pane ySplit="1152" topLeftCell="A562" activePane="bottomLeft"/>
+      <selection activeCell="U38" sqref="U38"/>
+      <selection pane="bottomLeft" activeCell="N574" sqref="N574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7889,6 +7897,9 @@
       <c r="H566" s="13">
         <v>34.5</v>
       </c>
+      <c r="J566" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="K566" s="14">
         <v>4279</v>
       </c>
@@ -7896,7 +7907,7 @@
         <v>12.124599999999999</v>
       </c>
       <c r="M566">
-        <v>14.234</v>
+        <v>1.472</v>
       </c>
       <c r="N566">
         <v>-0.48849999999999999</v>
@@ -8129,7 +8140,7 @@
         <v>1.3376999999999999</v>
       </c>
       <c r="M583">
-        <v>1.472</v>
+        <v>14.234</v>
       </c>
       <c r="N583">
         <v>-9.5299999999999996E-2</v>
@@ -10103,8 +10114,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9bd92fc451d28d7a43c1e2d68c8f297e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6122410798bbeb3d5138414ef9c1dd21" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="66b1d846b1b9efb7ee546c90ee14313c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f185daa67cb9aaba26ea2e5f6e3f3c05" ns2:_="">
     <xsd:import namespace="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -10114,6 +10134,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10132,6 +10156,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -10234,15 +10280,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10250,24 +10287,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8584536-6C2C-4B21-BFEA-0490800EEC07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D814E5-5E67-48D6-A2B4-A5162778CC0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10275,18 +10294,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E3C685-EA7F-4AC6-A28F-D31F41721383}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3D6EF4-1E7B-407B-B5AA-1B148B709C47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>